--- a/特征选择.xlsx
+++ b/特征选择.xlsx
@@ -24,86 +24,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>特征清单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为每个中类分别训练一个学习器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>将每一个中类在每一天的销售数据作为一个特征</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一性数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>时间类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中类编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>星期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节假日前</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节假日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为每个中类分别训练一个学习器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有促销活动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类中其他促销的中类数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>当天总销量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>当天总营业额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一天销量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两天前销量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三天前销量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一周均销量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>当天销量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类特征</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一性数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否有促销活动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类中其他促销的中类数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中类编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一性数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>促销类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>节假日前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两天前销量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三天前销量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一周均销量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -128,18 +192,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -178,53 +242,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -499,139 +535,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J11" sqref="J11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="1" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="O12" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="P12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:L1"/>
+  <mergeCells count="14">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J11:M11"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
